--- a/public/downloads/modified_template.xlsx
+++ b/public/downloads/modified_template.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>TOKYO BYOKANE (THAILAND) CO.,LTD.</t>
   </si>
@@ -52,9 +52,15 @@
     <t>CUSTOMER CODE    :</t>
   </si>
   <si>
+    <t>BOI9002</t>
+  </si>
+  <si>
     <t>CUSTOMER NAME   :</t>
   </si>
   <si>
+    <t>NK MECHATRONICS CO.,LTD.</t>
+  </si>
+  <si>
     <t>Unit (PCS.)</t>
   </si>
   <si>
@@ -136,7 +142,16 @@
     <t>2024</t>
   </si>
   <si>
-    <t>New Value</t>
+    <t>N0Z-0257-00</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>SCREW</t>
+  </si>
+  <si>
+    <t>XB4-5301-005</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -206,9 +221,6 @@
   </si>
   <si>
     <t>T1000041C</t>
-  </si>
-  <si>
-    <t>SCREW</t>
   </si>
   <si>
     <t>2</t>
@@ -2805,7 +2817,9 @@
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="207"/>
+      <c r="C3" s="207" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="208"/>
       <c r="E3" s="138"/>
       <c r="F3" s="38"/>
@@ -2834,9 +2848,11 @@
     </row>
     <row r="4" spans="1:45" customHeight="1" ht="18" s="1" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="194"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="194" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="195"/>
       <c r="E4" s="195"/>
       <c r="F4" s="195"/>
@@ -2844,7 +2860,7 @@
       <c r="H4" s="195"/>
       <c r="I4" s="196"/>
       <c r="AG4" s="71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
@@ -2856,7 +2872,7 @@
       <c r="C5" s="2"/>
       <c r="E5" s="83"/>
       <c r="F5" s="203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" s="204"/>
       <c r="H5" s="204"/>
@@ -2882,11 +2898,11 @@
       <c r="AB5" s="205"/>
       <c r="AC5" s="206"/>
       <c r="AD5" s="201" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="202"/>
       <c r="AF5" s="199" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG5" s="200"/>
       <c r="AH5" s="10"/>
@@ -2896,79 +2912,79 @@
     </row>
     <row r="6" spans="1:45" customHeight="1" ht="11.5">
       <c r="A6" s="175" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="178" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="181" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="184" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="187" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="190" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="191"/>
       <c r="H6" s="197" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="191"/>
       <c r="J6" s="210" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" s="191"/>
       <c r="L6" s="210" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" s="191"/>
       <c r="N6" s="210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O6" s="191"/>
       <c r="P6" s="159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="159"/>
       <c r="R6" s="159" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S6" s="159"/>
       <c r="T6" s="159" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U6" s="159"/>
       <c r="V6" s="159" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W6" s="159"/>
       <c r="X6" s="159" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="159"/>
       <c r="Z6" s="167" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="167"/>
       <c r="AB6" s="167" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC6" s="169"/>
       <c r="AD6" s="171" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE6" s="173" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF6" s="161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG6" s="164" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:45" customHeight="1" ht="11.5">
@@ -3013,82 +3029,82 @@
       <c r="D8" s="186"/>
       <c r="E8" s="189"/>
       <c r="F8" s="86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA8" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB8" s="88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AC8" s="89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD8" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="55" t="s">
         <v>31</v>
-      </c>
-      <c r="AE8" s="55" t="s">
-        <v>29</v>
       </c>
       <c r="AF8" s="163"/>
       <c r="AG8" s="166"/>
@@ -3098,10 +3114,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="123"/>
+        <v>34</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="135"/>
       <c r="F9" s="66"/>
       <c r="G9" s="67"/>
@@ -3148,9 +3168,15 @@
       <c r="A10" s="33">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="123"/>
+      <c r="B10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="135"/>
       <c r="F10" s="66"/>
       <c r="G10" s="67"/>
@@ -3197,9 +3223,15 @@
       <c r="A11" s="46">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="123"/>
+      <c r="B11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="135"/>
       <c r="F11" s="66"/>
       <c r="G11" s="67"/>
@@ -3246,9 +3278,15 @@
       <c r="A12" s="33">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="123"/>
+      <c r="B12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="135"/>
       <c r="F12" s="66"/>
       <c r="G12" s="67"/>
@@ -5202,62 +5240,62 @@
     </row>
     <row r="51" spans="1:45" customHeight="1" ht="11.5">
       <c r="F51" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H51" s="70"/>
       <c r="O51" s="70"/>
       <c r="Z51" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:45" customHeight="1" ht="11.5">
       <c r="F52" s="78"/>
       <c r="H52" s="70"/>
       <c r="I52" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J52" s="70"/>
       <c r="L52" s="77" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="T52" s="70"/>
       <c r="V52" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="X52" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Z52" s="70"/>
       <c r="AA52" s="70"/>
     </row>
     <row r="53" spans="1:45" customHeight="1" ht="11.5">
       <c r="B53" s="100" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I53" s="70"/>
       <c r="V53" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="W53" s="70"/>
       <c r="X53" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Z53" s="70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AA53" s="49"/>
       <c r="AG53" s="4"/>
     </row>
     <row r="54" spans="1:45" customHeight="1" ht="11.5">
       <c r="B54" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D54" s="3"/>
       <c r="AG54" s="4"/>
     </row>
     <row r="55" spans="1:45" customHeight="1" ht="11.5">
       <c r="B55" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="21"/>
@@ -5267,7 +5305,7 @@
     </row>
     <row r="56" spans="1:45" customHeight="1" ht="11.5">
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="21"/>
@@ -5378,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:22" customHeight="1" ht="30.75" s="72" customFormat="1">
       <c r="A1" s="212" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B1" s="212"/>
       <c r="C1" s="212"/>
@@ -5407,34 +5445,34 @@
     </row>
     <row r="2" spans="1:22" customHeight="1" ht="34.5" s="72" customFormat="1">
       <c r="A2" s="115" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="118" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="118" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="118" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="117" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2" s="118" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2" s="93" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I2" s="114" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J2" s="122" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K2" s="109"/>
       <c r="L2" s="109"/>
@@ -5451,31 +5489,31 @@
     </row>
     <row r="3" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A3" s="124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" s="126" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="126" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F3" s="126" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G3" s="126" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H3" s="127" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I3" s="128" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J3" s="128">
         <v>2000</v>
@@ -5495,31 +5533,31 @@
     </row>
     <row r="4" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A4" s="124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D4" s="126" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F4" s="126" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G4" s="126" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="127" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" s="128" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J4" s="128">
         <v>72579</v>
@@ -5539,31 +5577,31 @@
     </row>
     <row r="5" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A5" s="124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" s="126" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F5" s="126" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G5" s="126" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="128" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J5" s="128">
         <v>1000</v>
@@ -5583,31 +5621,31 @@
     </row>
     <row r="6" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A6" s="124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G6" s="126" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H6" s="127" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I6" s="128" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J6" s="128">
         <v>21000</v>
@@ -5627,31 +5665,31 @@
     </row>
     <row r="7" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A7" s="124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7" s="126" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G7" s="126" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I7" s="128" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J7" s="128">
         <v>18000</v>
@@ -5671,31 +5709,31 @@
     </row>
     <row r="8" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A8" s="124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="126" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="126" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F8" s="126" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G8" s="126" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H8" s="127" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I8" s="128" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J8" s="128">
         <v>6000</v>
@@ -5715,31 +5753,31 @@
     </row>
     <row r="9" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A9" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G9" s="146" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H9" s="147" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I9" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J9" s="148">
         <v>40000</v>
@@ -5759,31 +5797,31 @@
     </row>
     <row r="10" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A10" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G10" s="146" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H10" s="147" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I10" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J10" s="148">
         <v>62000</v>
@@ -5803,31 +5841,31 @@
     </row>
     <row r="11" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A11" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B11" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C11" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11" s="146" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H11" s="147" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="148" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J11" s="148">
         <v>27000</v>
@@ -5847,31 +5885,31 @@
     </row>
     <row r="12" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A12" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B12" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G12" s="146" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" s="147" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" s="148" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J12" s="148">
         <v>1000</v>
@@ -5891,31 +5929,31 @@
     </row>
     <row r="13" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A13" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B13" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G13" s="146" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H13" s="147" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I13" s="148" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J13" s="148">
         <v>13400</v>
@@ -5935,31 +5973,31 @@
     </row>
     <row r="14" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A14" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E14" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F14" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G14" s="146" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H14" s="147" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I14" s="148" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J14" s="148">
         <v>3870</v>
@@ -5979,31 +6017,31 @@
     </row>
     <row r="15" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A15" s="144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C15" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E15" s="146" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F15" s="146" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G15" s="146" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H15" s="147" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I15" s="148" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J15" s="148">
         <v>23129</v>
@@ -6023,31 +6061,31 @@
     </row>
     <row r="16" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A16" s="129" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" s="131" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" s="131" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="131" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G16" s="131" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16" s="132" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J16" s="133">
         <v>200</v>
@@ -6070,31 +6108,31 @@
     </row>
     <row r="17" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A17" s="149" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D17" s="151" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" s="151" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" s="151" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G17" s="151" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H17" s="152" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I17" s="153" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J17" s="153">
         <v>63000</v>
@@ -6114,31 +6152,31 @@
     </row>
     <row r="18" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A18" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C18" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E18" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F18" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G18" s="146" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H18" s="147" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I18" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J18" s="148">
         <v>5000</v>
@@ -6158,31 +6196,31 @@
     </row>
     <row r="19" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A19" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B19" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D19" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E19" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F19" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G19" s="146" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H19" s="147" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I19" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J19" s="148">
         <v>8000</v>
@@ -6202,31 +6240,31 @@
     </row>
     <row r="20" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A20" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D20" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G20" s="146" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H20" s="147" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I20" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J20" s="148">
         <v>24000</v>
@@ -6246,31 +6284,31 @@
     </row>
     <row r="21" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A21" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B21" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E21" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G21" s="146" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H21" s="147" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I21" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J21" s="148">
         <v>7000</v>
@@ -6290,31 +6328,31 @@
     </row>
     <row r="22" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A22" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B22" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F22" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G22" s="146" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H22" s="147" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I22" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J22" s="148">
         <v>47000</v>
@@ -6334,31 +6372,31 @@
     </row>
     <row r="23" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A23" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B23" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E23" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G23" s="146" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H23" s="147" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I23" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J23" s="148">
         <v>10000</v>
@@ -6378,31 +6416,31 @@
     </row>
     <row r="24" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A24" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B24" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C24" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D24" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E24" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F24" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G24" s="146" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H24" s="147" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I24" s="148" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J24" s="148">
         <v>50000</v>
@@ -6422,31 +6460,31 @@
     </row>
     <row r="25" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A25" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E25" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F25" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G25" s="146" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H25" s="147" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I25" s="148" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J25" s="148">
         <v>11000</v>
@@ -6466,31 +6504,31 @@
     </row>
     <row r="26" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A26" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B26" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C26" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E26" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F26" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G26" s="146" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H26" s="147" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I26" s="148" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J26" s="148">
         <v>400</v>
@@ -6510,31 +6548,31 @@
     </row>
     <row r="27" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A27" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B27" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E27" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F27" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G27" s="146" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H27" s="147" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I27" s="148" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J27" s="148">
         <v>5325</v>
@@ -6554,31 +6592,31 @@
     </row>
     <row r="28" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A28" s="144" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B28" s="145" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C28" s="146" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F28" s="146" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G28" s="146" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H28" s="147" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I28" s="148" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J28" s="148">
         <v>5440</v>
@@ -6598,31 +6636,31 @@
     </row>
     <row r="29" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A29" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="146" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="146" t="s">
+      <c r="I29" s="148" t="s">
         <v>88</v>
-      </c>
-      <c r="F29" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="148" t="s">
-        <v>84</v>
       </c>
       <c r="J29" s="148">
         <v>16240</v>
@@ -6642,31 +6680,31 @@
     </row>
     <row r="30" spans="1:22" customHeight="1" ht="11.5" s="72" customFormat="1">
       <c r="A30" s="155" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B30" s="154" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D30" s="156" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E30" s="156" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="158" t="s">
         <v>88</v>
-      </c>
-      <c r="F30" s="156" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="158" t="s">
-        <v>84</v>
       </c>
       <c r="J30" s="158">
         <v>800</v>
@@ -9247,23 +9285,23 @@
     <row r="1" spans="1:5" customHeight="1" ht="20.25">
       <c r="A1" s="23"/>
       <c r="B1" s="43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="20.25">
       <c r="B2" s="44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="20.25">
       <c r="B3" s="44" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="20.25" s="29" customFormat="1">
       <c r="A4" s="24"/>
       <c r="B4" s="44" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="24"/>
@@ -9271,7 +9309,7 @@
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="30.75" s="29" customFormat="1">
       <c r="A5" s="213" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" s="213"/>
       <c r="C5" s="213"/>
@@ -9280,27 +9318,27 @@
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="72.75" s="31" customFormat="1">
       <c r="A6" s="30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="21" s="31" customFormat="1">
       <c r="A7" s="47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -9310,26 +9348,26 @@
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="97" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="97" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9338,39 +9376,39 @@
         <v>42248</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="97" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="98" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9379,26 +9417,26 @@
         <v>42278</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9407,13 +9445,13 @@
         <v>42278</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9422,13 +9460,13 @@
         <v>42278</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9437,169 +9475,169 @@
         <v>42248</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="98" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="97" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="97" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E20" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="97" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="97" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E22" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="97" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E23" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="97" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E24" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="97" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="97" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E26" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A27" s="65"/>
       <c r="B27" s="65"/>
       <c r="C27" s="99" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="94" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E28" s="99" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="99" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E29" s="99" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9608,26 +9646,26 @@
         <v>42278</v>
       </c>
       <c r="C30" s="94" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="99" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E31" s="99" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9636,13 +9674,13 @@
         <v>42278</v>
       </c>
       <c r="C32" s="94" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E32" s="94" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9651,39 +9689,39 @@
         <v>42278</v>
       </c>
       <c r="C33" s="94" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E33" s="94" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
       <c r="C34" s="99" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E34" s="99" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
       <c r="C35" s="94" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9692,13 +9730,13 @@
         <v>42319</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9707,13 +9745,13 @@
         <v>42319</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E37" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9722,13 +9760,13 @@
         <v>42491</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9737,13 +9775,13 @@
         <v>42491</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E39" s="94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9752,13 +9790,13 @@
         <v>42491</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E40" s="94" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9767,13 +9805,13 @@
         <v>42491</v>
       </c>
       <c r="C41" s="94" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E41" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9782,13 +9820,13 @@
         <v>42491</v>
       </c>
       <c r="C42" s="94" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E42" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9797,13 +9835,13 @@
         <v>42491</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E43" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9812,13 +9850,13 @@
         <v>42491</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E44" s="94" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9827,13 +9865,13 @@
         <v>42522</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E45" s="94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9842,13 +9880,13 @@
         <v>42583</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9857,13 +9895,13 @@
         <v>42583</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E47" s="94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9872,13 +9910,13 @@
         <v>42614</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E48" s="94" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9887,13 +9925,13 @@
         <v>42614</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E49" s="94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9902,13 +9940,13 @@
         <v>42767</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E50" s="95" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9917,13 +9955,13 @@
         <v>42948</v>
       </c>
       <c r="C51" s="95" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E51" s="95" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9932,13 +9970,13 @@
         <v>43101</v>
       </c>
       <c r="C52" s="95" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E52" s="95" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9947,13 +9985,13 @@
         <v>43160</v>
       </c>
       <c r="C53" s="95" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E53" s="95" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9962,13 +10000,13 @@
         <v>43160</v>
       </c>
       <c r="C54" s="95" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E54" s="95" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9977,13 +10015,13 @@
         <v>43160</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E55" s="94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -9992,13 +10030,13 @@
         <v>43405</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E56" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10007,13 +10045,13 @@
         <v>43405</v>
       </c>
       <c r="C57" s="94" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E57" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10022,13 +10060,13 @@
         <v>43405</v>
       </c>
       <c r="C58" s="94" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E58" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10037,13 +10075,13 @@
         <v>43405</v>
       </c>
       <c r="C59" s="94" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E59" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10052,13 +10090,13 @@
         <v>43405</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E60" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10067,13 +10105,13 @@
         <v>43709</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E61" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10082,13 +10120,13 @@
         <v>43709</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E62" s="94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10097,13 +10135,13 @@
         <v>43770</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E63" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10112,13 +10150,13 @@
         <v>43831</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E64" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10127,13 +10165,13 @@
         <v>43891</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E65" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10142,13 +10180,13 @@
         <v>44896</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E66" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10157,13 +10195,13 @@
         <v>44958</v>
       </c>
       <c r="C67" s="94" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E67" s="94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10172,13 +10210,13 @@
         <v>45047</v>
       </c>
       <c r="C68" s="94" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E68" s="94" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10187,13 +10225,13 @@
         <v>45078</v>
       </c>
       <c r="C69" s="94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E69" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10202,13 +10240,13 @@
         <v>45352</v>
       </c>
       <c r="C70" s="94" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E70" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10217,13 +10255,13 @@
         <v>45352</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E71" s="94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
@@ -10232,13 +10270,13 @@
         <v>45352</v>
       </c>
       <c r="C72" s="94" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E72" s="94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:5" customHeight="1" ht="13.5" s="31" customFormat="1">
